--- a/resources/spreadsheets/migration_data.xlsx
+++ b/resources/spreadsheets/migration_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\harithborong\packages\Harithkhairol\ExcelMigration\resources\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA741A5F-70E8-4C97-96DD-E45C1A81AE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9A3741-A95A-49FB-93CD-09F0B8C9F827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A70367AE-C769-4B6A-8401-3FBF9BB57BBF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Table</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>MorphsCustomIndex</t>
+  </si>
+  <si>
+    <t>has UUID (yes/no)</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA77242-B65E-4BC0-85FC-0DB99D4B325D}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +485,7 @@
     <col min="19" max="19" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,6 +533,9 @@
       </c>
       <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
